--- a/biology/Zoologie/Coelognathus_radiatus/Coelognathus_radiatus.xlsx
+++ b/biology/Zoologie/Coelognathus_radiatus/Coelognathus_radiatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coelognathus radiatus  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coelognathus radiatus  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce se rencontre en :
 en Birmanie ;
@@ -526,7 +540,7 @@
 à Singapour ;
 aux Philippines ;
 en Thaïlande, y compris sur l'île de Phuket ;
-au Viêt Nam[1].</t>
+au Viêt Nam.</t>
         </is>
       </c>
     </row>
@@ -554,11 +568,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coelognathus radiatus est un serpent ratier diurne.
 Il mesure de 1,8 à 2 m.
-Il peut parfois être impressionnant et sembler menaçant mais il n'est pas dangereux pour l'homme : il n'est pas venimeux[2] !
+Il peut parfois être impressionnant et sembler menaçant mais il n'est pas dangereux pour l'homme : il n'est pas venimeux !
 </t>
         </is>
       </c>
@@ -587,7 +603,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boie, 1827 : Bemerkungen über Merrem's Versuch eines Systems der Amphibien, 1. Lieferung: Ophidier. Isis von Oken, Jena, vol. 20, p. 508-566 (texte intégral)
 Cantor, 1839 : Spicilegium Serpentium Indicorum. part 1 Proceedings of the Zoological Society of London, vol. 1839, p. 31-34 (texte intégral).</t>
